--- a/template/행안부_30억미만.xlsx
+++ b/template/행안부_30억미만.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>기초금액</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>2025.07.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표사</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2013,6 +2017,108 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2036,108 +2142,6 @@
     </xf>
     <xf numFmtId="22" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -2517,7 +2521,7 @@
   <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -2557,74 +2561,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="33.75" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="134"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="156"/>
       <c r="H1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
       <c r="K1" s="92" t="e">
         <f>TRUNC(I1/F2,4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L1" s="68"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
       <c r="AD1" s="106"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="106"/>
       <c r="AG1" s="106"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="159"/>
       <c r="AK1" s="107"/>
       <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
       <c r="AN1" s="107"/>
     </row>
     <row r="2" spans="1:46" s="58" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="127"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="161"/>
       <c r="H2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="129">
+      <c r="I2" s="163">
         <f>D2*0.8</f>
         <v>0</v>
       </c>
-      <c r="J2" s="130"/>
+      <c r="J2" s="164"/>
       <c r="K2" s="21" t="s">
         <v>27</v>
       </c>
@@ -2634,11 +2638,11 @@
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" s="52"/>
@@ -2670,96 +2674,96 @@
       <c r="AT2" s="91"/>
     </row>
     <row r="3" spans="1:46" s="60" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="152" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="154" t="s">
+      <c r="O3" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="151" t="s">
+      <c r="P3" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="150"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="139"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="151" t="s">
+      <c r="W3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="150"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="139"/>
       <c r="AD3" s="59"/>
       <c r="AE3" s="59"/>
       <c r="AF3" s="59"/>
       <c r="AG3" s="59"/>
       <c r="AH3" s="71"/>
-      <c r="AI3" s="147" t="s">
+      <c r="AI3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="156" t="s">
+      <c r="AJ3" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="158" t="s">
+      <c r="AK3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="AL3" s="143" t="s">
+      <c r="AL3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="161" t="s">
+      <c r="AM3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="163" t="s">
+      <c r="AN3" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="160" t="s">
+      <c r="AO3" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="160" t="s">
+      <c r="AP3" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="160" t="s">
+      <c r="AQ3" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="160" t="s">
+      <c r="AR3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="160" t="s">
+      <c r="AS3" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="160" t="s">
+      <c r="AT3" s="127" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:46" s="60" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="116" t="s">
         <v>13</v>
       </c>
@@ -2778,7 +2782,9 @@
       <c r="H4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="103" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="104" t="s">
         <v>14</v>
       </c>
@@ -2791,8 +2797,8 @@
       <c r="M4" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="155"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="144"/>
       <c r="P4" s="98" t="s">
         <v>13</v>
       </c>
@@ -2850,18 +2856,18 @@
       <c r="AH4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="148"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="160"/>
-      <c r="AT4" s="160"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
     </row>
     <row r="5" spans="1:46" s="85" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
       <c r="A5" s="111">
@@ -3318,7 +3324,7 @@
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="165"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="51"/>
       <c r="F10" s="94"/>
       <c r="G10" s="86"/>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="54"/>
-      <c r="X12" s="166"/>
+      <c r="X12" s="126"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="19"/>
@@ -14870,14 +14876,16 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:AC1"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -14890,16 +14898,14 @@
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:AC1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
